--- a/data/trans_orig/P33_2_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P33_2_2023-Clase-trans_orig.xlsx
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>7.346998914347957</v>
+        <v>7.346998914347958</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>7.334950814023585</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7.341312257578092</v>
+        <v>7.341312257578093</v>
       </c>
     </row>
     <row r="5">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.248800675182671</v>
+        <v>7.254126989656479</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.249205010471725</v>
+        <v>7.248454050869519</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.277485561191151</v>
+        <v>7.277744627491946</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.435787628678376</v>
+        <v>7.443942958092237</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.425641233446228</v>
+        <v>7.424354203417078</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.409175765563883</v>
+        <v>7.406134608014682</v>
       </c>
     </row>
     <row r="7">
@@ -621,7 +621,7 @@
         <v>7.227523379572791</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7.322473782527434</v>
+        <v>7.322473782527433</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.289435610042165</v>
+        <v>7.292413416815569</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.128208550248786</v>
+        <v>7.115163677850411</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.25019564513286</v>
+        <v>7.241803184767501</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.509515446459651</v>
+        <v>7.508819457470955</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.334384865741154</v>
+        <v>7.327284092148851</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.403376160448495</v>
+        <v>7.404988905080508</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         <v>7.213853432360191</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>7.149142812328004</v>
+        <v>7.149142812328003</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>7.195496236267826</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.101581266290396</v>
+        <v>7.099636379819813</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.998402637216389</v>
+        <v>7.006248033326811</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.106000613924444</v>
+        <v>7.100299546119849</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.319879375547278</v>
+        <v>7.319237872652804</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.300463208526719</v>
+        <v>7.291384716783777</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.279357239900871</v>
+        <v>7.28317624168196</v>
       </c>
     </row>
     <row r="13">
@@ -731,7 +731,7 @@
         <v>7.164878828045256</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7.26771938660189</v>
+        <v>7.267719386601891</v>
       </c>
     </row>
     <row r="14">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.255634705505809</v>
+        <v>7.266248153270942</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.077636459905082</v>
+        <v>7.088997631665187</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.212717529380646</v>
+        <v>7.214281799897861</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.42746375281305</v>
+        <v>7.424820554738361</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.244363118379414</v>
+        <v>7.248757797169082</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.326481033680853</v>
+        <v>7.325386445977503</v>
       </c>
     </row>
     <row r="16">
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>7.278708580586796</v>
+        <v>7.278708580586797</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>7.126999380687121</v>
+        <v>7.12699938068712</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>7.188845686485037</v>
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.173486355173634</v>
+        <v>7.173575586352765</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.044538411267066</v>
+        <v>7.047739614166495</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.123480572346921</v>
+        <v>7.125998890551963</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.396227309681819</v>
+        <v>7.389833459142338</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.202464580018645</v>
+        <v>7.205761009607534</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.253383352809329</v>
+        <v>7.257522131414437</v>
       </c>
     </row>
     <row r="19">
@@ -835,13 +835,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>8.120210088126361</v>
+        <v>8.120210088126363</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>7.456554866892485</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7.605017121894433</v>
+        <v>7.605017121894434</v>
       </c>
     </row>
     <row r="20">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>7.877158137387354</v>
+        <v>7.865087858541218</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>7.368374666131606</v>
+        <v>7.362883822344961</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7.519769297152915</v>
+        <v>7.51498372595591</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>8.344293142815602</v>
+        <v>8.331930838203819</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>7.544266036028856</v>
+        <v>7.541633622654215</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7.693040677478091</v>
+        <v>7.693762808490829</v>
       </c>
     </row>
     <row r="22">
@@ -890,10 +890,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>7.37989598356352</v>
+        <v>7.379895983563519</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>7.253504124000789</v>
+        <v>7.253504124000788</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>7.315027588999826</v>
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>7.330978717760806</v>
+        <v>7.335576631353703</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>7.213646358883547</v>
+        <v>7.213814569907893</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7.285400341528572</v>
+        <v>7.283861572373683</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.42657005394851</v>
+        <v>7.426307097579546</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.291243125012356</v>
+        <v>7.289742554388402</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.346014968659916</v>
+        <v>7.344128254740451</v>
       </c>
     </row>
     <row r="25">
